--- a/DB Schema and APIs.xlsx
+++ b/DB Schema and APIs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
   <si>
     <t>username</t>
   </si>
@@ -151,36 +151,18 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">GET:  /userById?username=kernzhao </t>
-  </si>
-  <si>
     <t>get JSON representation of a particular user info in the database</t>
   </si>
   <si>
-    <t>GET:  /recipeById?recipeId=32768423846783</t>
-  </si>
-  <si>
     <t>get JSON representation of a particular recipe info in the database</t>
   </si>
   <si>
-    <t>GET:  /allUsers</t>
-  </si>
-  <si>
     <t>get JSON representation of all users. Retuen Type: a list of user object</t>
   </si>
   <si>
     <t>get JSON representation of all recipies created by a particular user. Retuen Type: a list of recipe object</t>
   </si>
   <si>
-    <t xml:space="preserve">GET:  /RecipesByUsername?username=kernzhao </t>
-  </si>
-  <si>
-    <t>POST: /newComment</t>
-  </si>
-  <si>
-    <t>POST: /newUser</t>
-  </si>
-  <si>
     <t>Create a user account</t>
   </si>
   <si>
@@ -196,20 +178,9 @@
     <t>raw password</t>
   </si>
   <si>
-    <t>POST: /newRecipe</t>
-  </si>
-  <si>
     <t>Create a new recipe</t>
   </si>
   <si>
-    <t xml:space="preserve">parameters same as Recipy Schema defined at the top.
-Note: if the value of an attribute is an object (not a string), the object should be stringified
-</t>
-  </si>
-  <si>
-    <t>POST: /addFriend</t>
-  </si>
-  <si>
     <t>Mutually add friend</t>
   </si>
   <si>
@@ -228,15 +199,9 @@
     <t>username who is passively followed</t>
   </si>
   <si>
-    <t>POST: /follow</t>
-  </si>
-  <si>
     <t>Follow someone</t>
   </si>
   <si>
-    <t>POST: /newRating</t>
-  </si>
-  <si>
     <t>recipeId</t>
   </si>
   <si>
@@ -274,6 +239,39 @@
   </si>
   <si>
     <t>Contents of the comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET:  /database/userById?username=kernzhao </t>
+  </si>
+  <si>
+    <t>GET:  /database/recipeById?recipeId=32768423846783</t>
+  </si>
+  <si>
+    <t>GET: /database/allUsers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GET:  /database/RecipesByUsername?username=kernzhao </t>
+  </si>
+  <si>
+    <t>GET:  /database/allUsers</t>
+  </si>
+  <si>
+    <t>POST: /database/newUser</t>
+  </si>
+  <si>
+    <t>POST: /database/newRecipe</t>
+  </si>
+  <si>
+    <t>POST: /database/addFriend</t>
+  </si>
+  <si>
+    <t>POST: /database/follow</t>
+  </si>
+  <si>
+    <t>POST: /database/newRating</t>
+  </si>
+  <si>
+    <t>POST: /database/newComment</t>
   </si>
 </sst>
 </file>
@@ -395,11 +393,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -408,6 +403,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,17 +435,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="143" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,658 +734,664 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5"/>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="12" t="s">
+      <c r="C45" s="12"/>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
+      <c r="C46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="12" t="s">
+      <c r="C49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="2:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="15" t="s">
+      <c r="C55" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="23"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="23"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+      <c r="C63" s="12"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="13"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+      <c r="C71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="5" t="s">
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="9" t="s">
+      <c r="C72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="15"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="15"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="15"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="15"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
+      <c r="C78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="11"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="16"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="C82" s="12"/>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="9" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="15" t="s">
+      <c r="C84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="9" t="s">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="16"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="15" t="s">
+      <c r="C86" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>77</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B55:D60"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:D53"/>
+  <mergeCells count="26">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B54:D54"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
@@ -1389,12 +1399,19 @@
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B68:D68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
